--- a/src/main/resources/templates/export/nhanvien.xlsx
+++ b/src/main/resources/templates/export/nhanvien.xlsx
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,17 +131,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -207,112 +196,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,9 +234,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,75 +536,81 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
+    <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+    <row r="4" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+    <row r="5" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
